--- a/teachers.xlsx
+++ b/teachers.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="600" windowWidth="14055" windowHeight="4050"/>
+    <workbookView xWindow="630" yWindow="600" windowWidth="10215" windowHeight="4050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="64">
+  <si>
+    <t>TEACHER_ID</t>
+  </si>
   <si>
     <t>FIRST_NAME</t>
   </si>
@@ -22,6 +25,9 @@
     <t>LAST_NAME</t>
   </si>
   <si>
+    <t>PHONE_NO</t>
+  </si>
+  <si>
     <t>EMAIL_ADDRESS</t>
   </si>
   <si>
@@ -31,9 +37,6 @@
     <t>Doe</t>
   </si>
   <si>
-    <t>123-456-7890</t>
-  </si>
-  <si>
     <t>john.doe@example.com</t>
   </si>
   <si>
@@ -43,202 +46,166 @@
     <t>Smith</t>
   </si>
   <si>
-    <t>234-567-8901</t>
-  </si>
-  <si>
     <t>jane.smith@example.com</t>
   </si>
   <si>
-    <t>Robert</t>
+    <t>Michael</t>
   </si>
   <si>
     <t>Johnson</t>
   </si>
   <si>
-    <t>345-678-9012</t>
-  </si>
-  <si>
-    <t>robert.johnson@example.com</t>
-  </si>
-  <si>
-    <t>Mary</t>
+    <t>michael.johnson@example.com</t>
+  </si>
+  <si>
+    <t>Emily</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>emily.williams@example.com</t>
+  </si>
+  <si>
+    <t>William</t>
   </si>
   <si>
     <t>Brown</t>
   </si>
   <si>
-    <t>456-789-0123</t>
-  </si>
-  <si>
-    <t>mary.brown@example.com</t>
-  </si>
-  <si>
-    <t>William</t>
+    <t>william.brown@example.com</t>
+  </si>
+  <si>
+    <t>Olivia</t>
+  </si>
+  <si>
+    <t>Jones</t>
+  </si>
+  <si>
+    <t>olivia.jones@example.com</t>
+  </si>
+  <si>
+    <t>James</t>
   </si>
   <si>
     <t>Davis</t>
   </si>
   <si>
-    <t>567-890-1234</t>
-  </si>
-  <si>
-    <t>william.davis@example.com</t>
-  </si>
-  <si>
-    <t>Patricia</t>
+    <t>james.davis@example.com</t>
+  </si>
+  <si>
+    <t>Sophia</t>
   </si>
   <si>
     <t>Miller</t>
   </si>
   <si>
-    <t>678-901-2345</t>
-  </si>
-  <si>
-    <t>patricia.miller@example.com</t>
-  </si>
-  <si>
-    <t>Christopher</t>
+    <t>sophia.miller@example.com</t>
+  </si>
+  <si>
+    <t>David</t>
   </si>
   <si>
     <t>Wilson</t>
   </si>
   <si>
-    <t>789-012-3456</t>
-  </si>
-  <si>
-    <t>christopher.wilson@example.com</t>
-  </si>
-  <si>
-    <t>Linda</t>
+    <t>david.wilson@example.com</t>
+  </si>
+  <si>
+    <t>Emma</t>
   </si>
   <si>
     <t>Taylor</t>
   </si>
   <si>
-    <t>890-123-4567</t>
-  </si>
-  <si>
-    <t>linda.taylor@example.com</t>
-  </si>
-  <si>
-    <t>Michael</t>
+    <t>emma.taylor@example.com</t>
+  </si>
+  <si>
+    <t>Benjamin</t>
   </si>
   <si>
     <t>Anderson</t>
   </si>
   <si>
-    <t>901-234-5678</t>
-  </si>
-  <si>
-    <t>michael.anderson@example.com</t>
-  </si>
-  <si>
-    <t>Barbara</t>
+    <t>benjamin.anderson@example.com</t>
+  </si>
+  <si>
+    <t>Mia</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>mia.martinez@example.com</t>
+  </si>
+  <si>
+    <t>Alexander</t>
   </si>
   <si>
     <t>Thomas</t>
   </si>
   <si>
-    <t>012-345-6789</t>
-  </si>
-  <si>
-    <t>barbara.thomas@example.com</t>
-  </si>
-  <si>
-    <t>David</t>
-  </si>
-  <si>
-    <t>Jackson</t>
-  </si>
-  <si>
-    <t>david.jackson@example.com</t>
-  </si>
-  <si>
-    <t>Jennifer</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>jennifer.white@example.com</t>
-  </si>
-  <si>
-    <t>Richard</t>
-  </si>
-  <si>
-    <t>Harris</t>
-  </si>
-  <si>
-    <t>richard.harris@example.com</t>
-  </si>
-  <si>
-    <t>Elizabeth</t>
-  </si>
-  <si>
-    <t>Martin</t>
-  </si>
-  <si>
-    <t>elizabeth.martin@example.com</t>
-  </si>
-  <si>
-    <t>Charles</t>
-  </si>
-  <si>
-    <t>Thompson</t>
-  </si>
-  <si>
-    <t>charles.thompson@example.com</t>
-  </si>
-  <si>
-    <t>Karen</t>
+    <t>alexander.thomas@example.com</t>
+  </si>
+  <si>
+    <t>Charlotte</t>
   </si>
   <si>
     <t>Garcia</t>
   </si>
   <si>
-    <t>karen.garcia@example.com</t>
-  </si>
-  <si>
-    <t>Matthew</t>
-  </si>
-  <si>
-    <t>Martinez</t>
-  </si>
-  <si>
-    <t>matthew.martinez@example.com</t>
-  </si>
-  <si>
-    <t>Sarah</t>
+    <t>charlotte.garcia@example.com</t>
+  </si>
+  <si>
+    <t>Hernandez</t>
+  </si>
+  <si>
+    <t>james.hernandez@example.com</t>
+  </si>
+  <si>
+    <t>Amelia</t>
   </si>
   <si>
     <t>Robinson</t>
   </si>
   <si>
-    <t>sarah.robinson@example.com</t>
-  </si>
-  <si>
-    <t>Joseph</t>
-  </si>
-  <si>
-    <t>Clark</t>
-  </si>
-  <si>
-    <t>joseph.clark@example.com</t>
-  </si>
-  <si>
-    <t>Laura</t>
+    <t>amelia.robinson@example.com</t>
+  </si>
+  <si>
+    <t>Daniel</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>daniel.young@example.com</t>
+  </si>
+  <si>
+    <t>Harper</t>
   </si>
   <si>
     <t>Rodriguez</t>
   </si>
   <si>
-    <t>laura.rodriguez@example.com</t>
-  </si>
-  <si>
-    <t>TEACHER_ID</t>
-  </si>
-  <si>
-    <t>PHONE_NO</t>
+    <t>harper.rodriguez@example.com</t>
+  </si>
+  <si>
+    <t>Ethan</t>
+  </si>
+  <si>
+    <t>Lewis</t>
+  </si>
+  <si>
+    <t>ethan.lewis@example.com</t>
+  </si>
+  <si>
+    <t>Ella</t>
+  </si>
+  <si>
+    <t>Hall</t>
+  </si>
+  <si>
+    <t>ella.hall@example.com</t>
   </si>
 </sst>
 </file>
@@ -577,66 +544,61 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1"/>
-    <col min="5" max="5" width="39.7109375" customWidth="1"/>
-    <col min="6" max="6" width="38.85546875" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>74</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>300</v>
+        <v>3001</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>9876043210</v>
       </c>
       <c r="E2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>301</v>
+        <v>3002</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
         <v>9</v>
+      </c>
+      <c r="D3">
+        <v>8765432109</v>
       </c>
       <c r="E3" t="s">
         <v>10</v>
@@ -644,7 +606,7 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>302</v>
+        <v>3003</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
@@ -652,300 +614,300 @@
       <c r="C4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>7654321098</v>
+      </c>
+      <c r="E4" t="s">
         <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>303</v>
+        <v>3004</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5">
+        <v>6543210987</v>
+      </c>
+      <c r="E5" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>304</v>
+        <v>3005</v>
       </c>
       <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6">
+        <v>5432109876</v>
+      </c>
+      <c r="E6" t="s">
         <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>305</v>
+        <v>3006</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>25</v>
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>4321098765</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>306</v>
+        <v>3007</v>
       </c>
       <c r="B8" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" t="s">
-        <v>29</v>
+        <v>24</v>
+      </c>
+      <c r="D8">
+        <v>3210987654</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>307</v>
+        <v>3008</v>
       </c>
       <c r="B9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>2109876543</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>308</v>
+        <v>3009</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
+        <v>30</v>
+      </c>
+      <c r="D10">
+        <v>1098765432</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>309</v>
+        <v>3010</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="D11">
+        <v>9988776655</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>310</v>
+        <v>3011</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" t="s">
-        <v>5</v>
+        <v>36</v>
+      </c>
+      <c r="D12">
+        <v>8877665544</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>311</v>
+        <v>3012</v>
       </c>
       <c r="B13" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" t="s">
-        <v>9</v>
+        <v>39</v>
+      </c>
+      <c r="D13">
+        <v>7766554433</v>
       </c>
       <c r="E13" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>312</v>
+        <v>3013</v>
       </c>
       <c r="B14" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" t="s">
-        <v>13</v>
+        <v>42</v>
+      </c>
+      <c r="D14">
+        <v>6655443322</v>
       </c>
       <c r="E14" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>313</v>
+        <v>3014</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" t="s">
-        <v>17</v>
+        <v>45</v>
+      </c>
+      <c r="D15">
+        <v>5544332211</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>314</v>
+        <v>3015</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
+        <v>47</v>
+      </c>
+      <c r="D16">
+        <v>4433221100</v>
       </c>
       <c r="E16" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>315</v>
+        <v>3016</v>
       </c>
       <c r="B17" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
+        <v>50</v>
+      </c>
+      <c r="D17">
+        <v>3322110099</v>
       </c>
       <c r="E17" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>316</v>
+        <v>3017</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="C18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" t="s">
-        <v>29</v>
+        <v>53</v>
+      </c>
+      <c r="D18">
+        <v>2211009988</v>
       </c>
       <c r="E18" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>317</v>
+        <v>3018</v>
       </c>
       <c r="B19" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C19" t="s">
-        <v>65</v>
-      </c>
-      <c r="D19" t="s">
-        <v>33</v>
+        <v>56</v>
+      </c>
+      <c r="D19">
+        <v>1100998877</v>
       </c>
       <c r="E19" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>318</v>
+        <v>3019</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
-      </c>
-      <c r="D20" t="s">
-        <v>37</v>
+        <v>59</v>
+      </c>
+      <c r="D20">
+        <v>9900887766</v>
       </c>
       <c r="E20" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>319</v>
+        <v>3020</v>
       </c>
       <c r="B21" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C21" t="s">
-        <v>71</v>
-      </c>
-      <c r="D21" t="s">
-        <v>41</v>
+        <v>62</v>
+      </c>
+      <c r="D21">
+        <v>8798765432</v>
       </c>
       <c r="E21" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
